--- a/biology/Médecine/Ligament_calcanéo-naviculaire_plantaire/Ligament_calcanéo-naviculaire_plantaire.xlsx
+++ b/biology/Médecine/Ligament_calcanéo-naviculaire_plantaire/Ligament_calcanéo-naviculaire_plantaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligament_calcan%C3%A9o-naviculaire_plantaire</t>
+          <t>Ligament_calcanéo-naviculaire_plantaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament calcanéo-naviculaire plantaire (ou ligament calcanéo-scaphoïdien inférieur ou ligament calcanéo-scaphoïdien interne de Barkow ou ligament ressort ou trochlée articulaire de Weitbrecht) est un complexe ligamentaire de l'articulation talo-calcanéo-naviculaire constitutive de l'articulation transverse du tarse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ligament_calcan%C3%A9o-naviculaire_plantaire</t>
+          <t>Ligament_calcanéo-naviculaire_plantaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament calcanéo-naviculaire plantaire est un ligament plantaire du tarse qui relie le sustentaculum tali à l'os naviculaire.
 Il se divise en deux couches une couche profonde et une couche superficielle.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ligament_calcan%C3%A9o-naviculaire_plantaire</t>
+          <t>Ligament_calcanéo-naviculaire_plantaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce complexe ligamenteux sert non seulement à relier le calcanéus et l'os naviculaire, mais soutient également la tête du talus. Il fait partie de la cavité articulaire dans laquelle la tête est reçue. Il contribue au maintien de la voûte plantaire longitudinale médiale et supporte la majeure partie du poids corporel dans un pied fonctionnant normalement.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ligament_calcan%C3%A9o-naviculaire_plantaire</t>
+          <t>Ligament_calcanéo-naviculaire_plantaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une entorse du ligament calcanéo-naviculaire plantaire peut entraîner une déformation en pied plat qui peut nuire à la marche à pied.
 </t>
